--- a/medicine/Psychotrope/Rhum_Island/Rhum_Island.xlsx
+++ b/medicine/Psychotrope/Rhum_Island/Rhum_Island.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhum Island est la première marque de rhum agricole vieilli, assemblé à Saint-Martin dans les Antilles françaises depuis la disparation des sucreries en 1848.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société est fondée quelques mois avant l'ouragan Irma du 5 septembre 2017 qui a ravagé toute l'île.
-Les rhums sont élevés en fûts de chêne français. Ils sont produits par Island Compagnie, société spécialisée en spiritueux. Les rhums ont été récompensés par une médaille d'argent[1] en 2018 par le Concours général agricole de Paris.
-En mars 2020, pour faire face à la pandémie, Rhum Island a apporté sa contribution à la population de l'île avec l'aide de la Préfecture de Saint-Martin[2], Initiative Saint-Martin et les dons des Syndicats des Rhums de Guadeloupe en produisant bénévolement — avec de d'alcool de canne — 2 200 litres de gel hydroalcoolique[3] afin de pallier la pénurie sur l’île de Saint-Martin[4] et Saint-Barthélemy[5].
+Les rhums sont élevés en fûts de chêne français. Ils sont produits par Island Compagnie, société spécialisée en spiritueux. Les rhums ont été récompensés par une médaille d'argent en 2018 par le Concours général agricole de Paris.
+En mars 2020, pour faire face à la pandémie, Rhum Island a apporté sa contribution à la population de l'île avec l'aide de la Préfecture de Saint-Martin, Initiative Saint-Martin et les dons des Syndicats des Rhums de Guadeloupe en produisant bénévolement — avec de d'alcool de canne — 2 200 litres de gel hydroalcoolique afin de pallier la pénurie sur l’île de Saint-Martin et Saint-Barthélemy.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les rhums agricoles sont vieillis en fûts de chêne français.
 Rhum blanc agricole 50°.
